--- a/biology/Botanique/Marble_Hill_Park/Marble_Hill_Park.xlsx
+++ b/biology/Botanique/Marble_Hill_Park/Marble_Hill_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Marble Hill Park est un parc de 27 hectares situé à Twickenham, dans le quartier londonien de Richmond upon Thames. C'est un site appartenant au English Heritage qui entoure Marble Hill House, une villa palladienne construite à l'origine pour Henrietta Howard, maîtresse du roi George II en 1724-1729 [1].
-De 2004 à 2006, le parc a été un lieu d’événements musicaux en plein air organisés par le Jazz Cafe [2]. Le 26 août 2006, le groupe de pop vocal irlandais Westlife a organisé un concert pour leur tournée Face to Face, dans le cadre de leur album Face to Face .
-Le parc est classé Grade II * au Registre des parcs et jardins historiques[3].
-En 2015-2016, Historic England a mené un programme de recherche sur le développement du parc, notamment en examinant les conceptions de jardins au début et au milieu du XVIIIe siècle[4].
+Marble Hill Park est un parc de 27 hectares situé à Twickenham, dans le quartier londonien de Richmond upon Thames. C'est un site appartenant au English Heritage qui entoure Marble Hill House, une villa palladienne construite à l'origine pour Henrietta Howard, maîtresse du roi George II en 1724-1729 .
+De 2004 à 2006, le parc a été un lieu d’événements musicaux en plein air organisés par le Jazz Cafe . Le 26 août 2006, le groupe de pop vocal irlandais Westlife a organisé un concert pour leur tournée Face to Face, dans le cadre de leur album Face to Face .
+Le parc est classé Grade II * au Registre des parcs et jardins historiques.
+En 2015-2016, Historic England a mené un programme de recherche sur le développement du parc, notamment en examinant les conceptions de jardins au début et au milieu du XVIIIe siècle.
 </t>
         </is>
       </c>
